--- a/Results/Errors/RBFSVM_samples_error.xlsx
+++ b/Results/Errors/RBFSVM_samples_error.xlsx
@@ -475,7 +475,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09021</v>
+        <v>0.06554</v>
       </c>
       <c r="C2" t="n">
         <v>18</v>
@@ -501,7 +501,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="n">
-        <v>0.23047</v>
+        <v>0.22462</v>
       </c>
       <c r="C3" t="n">
         <v>16</v>
@@ -527,7 +527,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.23047</v>
+        <v>0.22462</v>
       </c>
       <c r="C4" t="n">
         <v>16</v>
@@ -553,7 +553,7 @@
         <v>70</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2341</v>
+        <v>0.22852</v>
       </c>
       <c r="C5" t="n">
         <v>14</v>
@@ -579,7 +579,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2341</v>
+        <v>0.22852</v>
       </c>
       <c r="C6" t="n">
         <v>14</v>
@@ -605,7 +605,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2368</v>
+        <v>0.23142</v>
       </c>
       <c r="C7" t="n">
         <v>18</v>
@@ -631,7 +631,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2368</v>
+        <v>0.23142</v>
       </c>
       <c r="C8" t="n">
         <v>18</v>
@@ -657,7 +657,7 @@
         <v>93</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2368</v>
+        <v>0.23142</v>
       </c>
       <c r="C9" t="n">
         <v>18</v>
@@ -683,7 +683,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23986</v>
+        <v>0.23471</v>
       </c>
       <c r="C10" t="n">
         <v>24</v>
@@ -709,7 +709,7 @@
         <v>80</v>
       </c>
       <c r="B11" t="n">
-        <v>0.24439</v>
+        <v>0.23959</v>
       </c>
       <c r="C11" t="n">
         <v>22</v>
@@ -735,7 +735,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>0.30907</v>
+        <v>0.31007</v>
       </c>
       <c r="C12" t="n">
         <v>10</v>
@@ -761,7 +761,7 @@
         <v>89</v>
       </c>
       <c r="B13" t="n">
-        <v>0.45147</v>
+        <v>0.47104</v>
       </c>
       <c r="C13" t="n">
         <v>18</v>
@@ -787,7 +787,7 @@
         <v>83</v>
       </c>
       <c r="B14" t="n">
-        <v>0.58112</v>
+        <v>0.6170600000000001</v>
       </c>
       <c r="C14" t="n">
         <v>10</v>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>0.90173</v>
+        <v>0.98468</v>
       </c>
       <c r="C15" t="n">
         <v>16</v>
@@ -839,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.94453</v>
+        <v>1.03318</v>
       </c>
       <c r="C16" t="n">
         <v>20</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1.03818</v>
+        <v>1.15228</v>
       </c>
       <c r="C17" t="n">
         <v>30</v>
@@ -891,7 +891,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>1.55659</v>
+        <v>1.577</v>
       </c>
       <c r="C18" t="n">
         <v>18</v>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>1.67219</v>
+        <v>1.87538</v>
       </c>
       <c r="C19" t="n">
         <v>30</v>
@@ -943,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>1.83559</v>
+        <v>2.06193</v>
       </c>
       <c r="C20" t="n">
         <v>22</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>1.89666</v>
+        <v>2.13146</v>
       </c>
       <c r="C21" t="n">
         <v>22</v>
@@ -995,7 +995,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>1.91364</v>
+        <v>2.15078</v>
       </c>
       <c r="C22" t="n">
         <v>24</v>
@@ -1021,7 +1021,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="n">
-        <v>2.09816</v>
+        <v>2.36019</v>
       </c>
       <c r="C23" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="n">
-        <v>2.10706</v>
+        <v>2.37027</v>
       </c>
       <c r="C24" t="n">
         <v>16</v>
@@ -1073,7 +1073,7 @@
         <v>65</v>
       </c>
       <c r="B25" t="n">
-        <v>2.16972</v>
+        <v>2.44117</v>
       </c>
       <c r="C25" t="n">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>2.21285</v>
+        <v>2.48993</v>
       </c>
       <c r="C26" t="n">
         <v>22</v>
@@ -1125,7 +1125,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="n">
-        <v>2.22249</v>
+        <v>2.50081</v>
       </c>
       <c r="C27" t="n">
         <v>14</v>
@@ -1151,7 +1151,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="n">
-        <v>2.22249</v>
+        <v>2.50081</v>
       </c>
       <c r="C28" t="n">
         <v>14</v>
@@ -1177,7 +1177,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>2.45036</v>
+        <v>2.75764</v>
       </c>
       <c r="C29" t="n">
         <v>18</v>
@@ -1203,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="n">
-        <v>2.45036</v>
+        <v>2.75764</v>
       </c>
       <c r="C30" t="n">
         <v>18</v>
@@ -1229,7 +1229,7 @@
         <v>47</v>
       </c>
       <c r="B31" t="n">
-        <v>2.61916</v>
+        <v>2.90682</v>
       </c>
       <c r="C31" t="n">
         <v>14</v>

--- a/Results/Errors/RBFSVM_samples_error.xlsx
+++ b/Results/Errors/RBFSVM_samples_error.xlsx
@@ -475,7 +475,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06554</v>
+        <v>0.08297</v>
       </c>
       <c r="C2" t="n">
         <v>18</v>
@@ -501,7 +501,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="n">
-        <v>0.22462</v>
+        <v>0.24154</v>
       </c>
       <c r="C3" t="n">
         <v>16</v>
@@ -527,7 +527,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.22462</v>
+        <v>0.24154</v>
       </c>
       <c r="C4" t="n">
         <v>16</v>
@@ -553,7 +553,7 @@
         <v>70</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22852</v>
+        <v>0.24535</v>
       </c>
       <c r="C5" t="n">
         <v>14</v>
@@ -579,7 +579,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22852</v>
+        <v>0.24535</v>
       </c>
       <c r="C6" t="n">
         <v>14</v>
@@ -605,7 +605,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>0.23142</v>
+        <v>0.2482</v>
       </c>
       <c r="C7" t="n">
         <v>18</v>
@@ -631,7 +631,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23142</v>
+        <v>0.2482</v>
       </c>
       <c r="C8" t="n">
         <v>18</v>
@@ -657,7 +657,7 @@
         <v>93</v>
       </c>
       <c r="B9" t="n">
-        <v>0.23142</v>
+        <v>0.2482</v>
       </c>
       <c r="C9" t="n">
         <v>18</v>
@@ -683,7 +683,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23471</v>
+        <v>0.25141</v>
       </c>
       <c r="C10" t="n">
         <v>24</v>
@@ -709,7 +709,7 @@
         <v>80</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23959</v>
+        <v>0.25618</v>
       </c>
       <c r="C11" t="n">
         <v>22</v>
@@ -735,7 +735,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>0.31007</v>
+        <v>0.32419</v>
       </c>
       <c r="C12" t="n">
         <v>10</v>
@@ -761,7 +761,7 @@
         <v>89</v>
       </c>
       <c r="B13" t="n">
-        <v>0.47104</v>
+        <v>0.47543</v>
       </c>
       <c r="C13" t="n">
         <v>18</v>
@@ -787,7 +787,7 @@
         <v>83</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6170600000000001</v>
+        <v>0.60953</v>
       </c>
       <c r="C14" t="n">
         <v>10</v>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>0.98468</v>
+        <v>0.94225</v>
       </c>
       <c r="C15" t="n">
         <v>16</v>
@@ -839,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>1.03318</v>
+        <v>0.98617</v>
       </c>
       <c r="C16" t="n">
         <v>20</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1.15228</v>
+        <v>1.08206</v>
       </c>
       <c r="C17" t="n">
         <v>30</v>
@@ -891,7 +891,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>1.577</v>
+        <v>1.51507</v>
       </c>
       <c r="C18" t="n">
         <v>18</v>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>1.87538</v>
+        <v>1.73681</v>
       </c>
       <c r="C19" t="n">
         <v>30</v>
@@ -943,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>2.06193</v>
+        <v>1.90398</v>
       </c>
       <c r="C20" t="n">
         <v>22</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>2.13146</v>
+        <v>1.96637</v>
       </c>
       <c r="C21" t="n">
         <v>22</v>
@@ -995,7 +995,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>2.15078</v>
+        <v>1.98371</v>
       </c>
       <c r="C22" t="n">
         <v>24</v>
@@ -1021,7 +1021,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="n">
-        <v>2.36019</v>
+        <v>2.17198</v>
       </c>
       <c r="C23" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="n">
-        <v>2.37027</v>
+        <v>2.18105</v>
       </c>
       <c r="C24" t="n">
         <v>16</v>
@@ -1073,7 +1073,7 @@
         <v>65</v>
       </c>
       <c r="B25" t="n">
-        <v>2.44117</v>
+        <v>2.2449</v>
       </c>
       <c r="C25" t="n">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>2.48993</v>
+        <v>2.28884</v>
       </c>
       <c r="C26" t="n">
         <v>22</v>
@@ -1125,7 +1125,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="n">
-        <v>2.50081</v>
+        <v>2.29865</v>
       </c>
       <c r="C27" t="n">
         <v>14</v>
@@ -1151,7 +1151,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="n">
-        <v>2.50081</v>
+        <v>2.29865</v>
       </c>
       <c r="C28" t="n">
         <v>14</v>
@@ -1177,7 +1177,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>2.75764</v>
+        <v>2.53052</v>
       </c>
       <c r="C29" t="n">
         <v>18</v>
@@ -1203,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="n">
-        <v>2.75764</v>
+        <v>2.53052</v>
       </c>
       <c r="C30" t="n">
         <v>18</v>
@@ -1229,7 +1229,7 @@
         <v>47</v>
       </c>
       <c r="B31" t="n">
-        <v>2.90682</v>
+        <v>2.70205</v>
       </c>
       <c r="C31" t="n">
         <v>14</v>

--- a/Results/Errors/RBFSVM_samples_error.xlsx
+++ b/Results/Errors/RBFSVM_samples_error.xlsx
@@ -475,7 +475,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08297</v>
+        <v>0.06444999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>18</v>
@@ -501,7 +501,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24154</v>
+        <v>0.19755</v>
       </c>
       <c r="C3" t="n">
         <v>16</v>
@@ -527,7 +527,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.24154</v>
+        <v>0.19755</v>
       </c>
       <c r="C4" t="n">
         <v>16</v>
@@ -553,7 +553,7 @@
         <v>70</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24535</v>
+        <v>0.20116</v>
       </c>
       <c r="C5" t="n">
         <v>14</v>
@@ -579,7 +579,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="n">
-        <v>0.24535</v>
+        <v>0.20116</v>
       </c>
       <c r="C6" t="n">
         <v>14</v>
@@ -605,7 +605,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2482</v>
+        <v>0.20386</v>
       </c>
       <c r="C7" t="n">
         <v>18</v>
@@ -631,7 +631,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2482</v>
+        <v>0.20386</v>
       </c>
       <c r="C8" t="n">
         <v>18</v>
@@ -657,7 +657,7 @@
         <v>93</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2482</v>
+        <v>0.20386</v>
       </c>
       <c r="C9" t="n">
         <v>18</v>
@@ -683,7 +683,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25141</v>
+        <v>0.20691</v>
       </c>
       <c r="C10" t="n">
         <v>24</v>
@@ -709,7 +709,7 @@
         <v>80</v>
       </c>
       <c r="B11" t="n">
-        <v>0.25618</v>
+        <v>0.21145</v>
       </c>
       <c r="C11" t="n">
         <v>22</v>
@@ -735,7 +735,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32419</v>
+        <v>0.27756</v>
       </c>
       <c r="C12" t="n">
         <v>10</v>
@@ -761,7 +761,7 @@
         <v>89</v>
       </c>
       <c r="B13" t="n">
-        <v>0.47543</v>
+        <v>0.43491</v>
       </c>
       <c r="C13" t="n">
         <v>18</v>
@@ -787,7 +787,7 @@
         <v>83</v>
       </c>
       <c r="B14" t="n">
-        <v>0.60953</v>
+        <v>0.5745</v>
       </c>
       <c r="C14" t="n">
         <v>10</v>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>0.94225</v>
+        <v>0.94417</v>
       </c>
       <c r="C15" t="n">
         <v>16</v>
@@ -839,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.98617</v>
+        <v>0.99387</v>
       </c>
       <c r="C16" t="n">
         <v>20</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1.08206</v>
+        <v>1.10267</v>
       </c>
       <c r="C17" t="n">
         <v>30</v>
@@ -891,7 +891,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>1.51507</v>
+        <v>1.69053</v>
       </c>
       <c r="C18" t="n">
         <v>18</v>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>1.73681</v>
+        <v>1.85748</v>
       </c>
       <c r="C19" t="n">
         <v>30</v>
@@ -943,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>1.90398</v>
+        <v>2.05087</v>
       </c>
       <c r="C20" t="n">
         <v>22</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>1.96637</v>
+        <v>2.12302</v>
       </c>
       <c r="C21" t="n">
         <v>22</v>
@@ -995,7 +995,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>1.98371</v>
+        <v>2.14308</v>
       </c>
       <c r="C22" t="n">
         <v>24</v>
@@ -1021,7 +1021,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="n">
-        <v>2.17198</v>
+        <v>2.3606</v>
       </c>
       <c r="C23" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="n">
-        <v>2.18105</v>
+        <v>2.37108</v>
       </c>
       <c r="C24" t="n">
         <v>16</v>
@@ -1073,7 +1073,7 @@
         <v>65</v>
       </c>
       <c r="B25" t="n">
-        <v>2.2449</v>
+        <v>2.44478</v>
       </c>
       <c r="C25" t="n">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>2.28884</v>
+        <v>2.49546</v>
       </c>
       <c r="C26" t="n">
         <v>22</v>
@@ -1125,7 +1125,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="n">
-        <v>2.29865</v>
+        <v>2.50678</v>
       </c>
       <c r="C27" t="n">
         <v>14</v>
@@ -1151,7 +1151,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="n">
-        <v>2.29865</v>
+        <v>2.50678</v>
       </c>
       <c r="C28" t="n">
         <v>14</v>
@@ -1177,7 +1177,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>2.53052</v>
+        <v>2.7739</v>
       </c>
       <c r="C29" t="n">
         <v>18</v>
@@ -1203,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="B30" t="n">
-        <v>2.53052</v>
+        <v>2.7739</v>
       </c>
       <c r="C30" t="n">
         <v>18</v>
@@ -1229,7 +1229,7 @@
         <v>47</v>
       </c>
       <c r="B31" t="n">
-        <v>2.70205</v>
+        <v>2.93143</v>
       </c>
       <c r="C31" t="n">
         <v>14</v>
